--- a/Workshop_List.xlsx
+++ b/Workshop_List.xlsx
@@ -227,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -251,179 +251,203 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -432,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -443,37 +467,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -482,16 +515,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -798,7 +828,7 @@
   <dimension ref="B1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -811,18 +841,18 @@
   <sheetData>
     <row r="1" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
@@ -843,7 +873,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -854,7 +884,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -979,11 +1009,11 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
@@ -997,7 +1027,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="20">
+      <c r="B20" s="13">
         <v>10</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -1008,7 +1038,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="20">
+      <c r="B21" s="13">
         <v>11</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1019,7 +1049,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="20">
+      <c r="B22" s="13">
         <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1030,7 +1060,7 @@
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="20">
+      <c r="B23" s="13">
         <v>13</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1041,7 +1071,7 @@
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1052,7 +1082,7 @@
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1063,18 +1093,17 @@
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Workshop_List.xlsx
+++ b/Workshop_List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>Tentative Workshop Schedule</t>
   </si>
@@ -172,6 +172,27 @@
   </si>
   <si>
     <t>More To Come!</t>
+  </si>
+  <si>
+    <t>14c</t>
+  </si>
+  <si>
+    <t>Tidy up turret</t>
+  </si>
+  <si>
+    <t>Write combined script for turret</t>
+  </si>
+  <si>
+    <t>Moving Platform</t>
+  </si>
+  <si>
+    <t>Write script for moving platform that is reusable</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Environment Tweaking; dark theme</t>
   </si>
 </sst>
 </file>
@@ -227,7 +248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -452,11 +473,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -464,9 +522,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -491,9 +546,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -522,6 +574,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -825,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D26"/>
+  <dimension ref="B1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -841,269 +902,303 @@
   <sheetData>
     <row r="1" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>9</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="13">
+      <c r="B20" s="11">
         <v>10</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="13">
+      <c r="B21" s="11">
         <v>11</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="13">
+      <c r="B22" s="11">
         <v>12</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="13">
+      <c r="B23" s="11">
         <v>13</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="11">
+        <v>15</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Workshop_List.xlsx
+++ b/Workshop_List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>Tentative Workshop Schedule</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>Environment Tweaking; dark theme</t>
+  </si>
+  <si>
+    <t>Write script so player can respawn at respawn position</t>
+  </si>
+  <si>
+    <t>Create respawn position so when player gets hit, respawns</t>
   </si>
 </sst>
 </file>
@@ -886,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D29"/>
+  <dimension ref="B1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1169,36 +1175,47 @@
         <v>15</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="11">
+        <v>16</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="21" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Workshop_List.xlsx
+++ b/Workshop_List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>Tentative Workshop Schedule</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Write script for camera for smooth and dynamic camera motion</t>
   </si>
   <si>
-    <t>Create an interative door</t>
-  </si>
-  <si>
     <t>Write script to control door motion and sound</t>
   </si>
   <si>
@@ -192,26 +189,53 @@
     <t>TBD</t>
   </si>
   <si>
-    <t>Environment Tweaking; dark theme</t>
-  </si>
-  <si>
     <t>Write script so player can respawn at respawn position</t>
   </si>
   <si>
     <t>Create respawn position so when player gets hit, respawns</t>
+  </si>
+  <si>
+    <t>Environment; dark theme</t>
+  </si>
+  <si>
+    <t>Adding items</t>
+  </si>
+  <si>
+    <t>Write script for reusable item</t>
+  </si>
+  <si>
+    <t>Create action interactive door</t>
+  </si>
+  <si>
+    <t>Create an interactive door</t>
+  </si>
+  <si>
+    <t>Write script for action-based interactive door</t>
+  </si>
+  <si>
+    <t>AI following player!</t>
+  </si>
+  <si>
+    <t>Write script for AI that will follow player</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -520,75 +544,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -892,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D30"/>
+  <dimension ref="B1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1130,44 +1160,44 @@
       <c r="B23" s="11">
         <v>13</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
@@ -1175,10 +1205,10 @@
         <v>15</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
@@ -1186,36 +1216,69 @@
         <v>16</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="2" t="s">
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>17</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>18</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>19</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="C32" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B33:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Workshop_List.xlsx
+++ b/Workshop_List.xlsx
@@ -278,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -503,48 +503,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -606,19 +569,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -925,7 +879,7 @@
   <dimension ref="B1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1160,7 +1114,7 @@
       <c r="B23" s="11">
         <v>13</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="21" t="s">
         <v>63</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1223,35 +1177,35 @@
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="1">
+      <c r="B29" s="11">
         <v>17</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="1">
+      <c r="B30" s="11">
         <v>18</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="1">
+      <c r="B31" s="11">
         <v>19</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="21" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1259,7 +1213,7 @@
       <c r="B32" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="21" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -1267,11 +1221,11 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="22" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
+      <c r="D33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Workshop_List.xlsx
+++ b/Workshop_List.xlsx
@@ -542,35 +542,35 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -879,7 +879,7 @@
   <dimension ref="B1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -892,18 +892,18 @@
   <sheetData>
     <row r="1" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -1060,11 +1060,11 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
@@ -1114,7 +1114,7 @@
       <c r="B23" s="11">
         <v>13</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="12" t="s">
         <v>63</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1180,10 +1180,10 @@
       <c r="B29" s="11">
         <v>17</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="12" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1191,10 +1191,10 @@
       <c r="B30" s="11">
         <v>18</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="12" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1202,10 +1202,10 @@
       <c r="B31" s="11">
         <v>19</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       <c r="B32" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="2" t="s">

--- a/Workshop_List.xlsx
+++ b/Workshop_List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>Tentative Workshop Schedule</t>
   </si>
@@ -201,9 +201,6 @@
     <t>Adding items</t>
   </si>
   <si>
-    <t>Write script for reusable item</t>
-  </si>
-  <si>
     <t>Create action interactive door</t>
   </si>
   <si>
@@ -217,19 +214,34 @@
   </si>
   <si>
     <t>Write script for AI that will follow player</t>
+  </si>
+  <si>
+    <t>Write script for multipurpose item</t>
+  </si>
+  <si>
+    <t>Projectiles</t>
+  </si>
+  <si>
+    <t>Write script for random projectile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -507,73 +519,76 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -876,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D33"/>
+  <dimension ref="B1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1078,7 +1093,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>10</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1089,7 +1104,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>11</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1100,7 +1115,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1111,18 +1126,18 @@
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>13</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1133,7 +1148,7 @@
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1144,7 +1159,7 @@
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1155,7 +1170,7 @@
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>15</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1166,7 +1181,7 @@
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>16</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1177,25 +1192,25 @@
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>17</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>61</v>
+      <c r="D29" s="23" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
         <v>18</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>64</v>
+      <c r="C30" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
@@ -1203,36 +1218,47 @@
         <v>19</v>
       </c>
       <c r="C31" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="11">
+        <v>20</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="22" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Workshop_List.xlsx
+++ b/Workshop_List.xlsx
@@ -557,38 +557,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -894,7 +894,7 @@
   <dimension ref="B1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="I27" sqref="I27:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -907,18 +907,18 @@
   <sheetData>
     <row r="1" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -1075,11 +1075,11 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
@@ -1198,18 +1198,18 @@
       <c r="C29" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <v>18</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="13" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1247,11 +1247,11 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Workshop_List.xlsx
+++ b/Workshop_List.xlsx
@@ -201,18 +201,12 @@
     <t>Adding items</t>
   </si>
   <si>
-    <t>Create action interactive door</t>
-  </si>
-  <si>
     <t>Create an interactive door</t>
   </si>
   <si>
     <t>Write script for action-based interactive door</t>
   </si>
   <si>
-    <t>AI following player!</t>
-  </si>
-  <si>
     <t>Write script for AI that will follow player</t>
   </si>
   <si>
@@ -223,19 +217,31 @@
   </si>
   <si>
     <t>Write script for random projectile</t>
+  </si>
+  <si>
+    <t>AI following player</t>
+  </si>
+  <si>
+    <t>Create action-based door</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -519,76 +525,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -894,7 +903,7 @@
   <dimension ref="B1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27:J27"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1130,7 +1139,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>43</v>
@@ -1199,7 +1208,7 @@
         <v>60</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
@@ -1207,32 +1216,32 @@
         <v>18</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
         <v>19</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>61</v>
+      <c r="C31" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
         <v>20</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>64</v>
+      <c r="C32" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">

--- a/Workshop_List.xlsx
+++ b/Workshop_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
   <si>
     <t>Tentative Workshop Schedule</t>
   </si>
@@ -195,9 +195,6 @@
     <t>Create respawn position so when player gets hit, respawns</t>
   </si>
   <si>
-    <t>Environment; dark theme</t>
-  </si>
-  <si>
     <t>Adding items</t>
   </si>
   <si>
@@ -223,6 +220,51 @@
   </si>
   <si>
     <t>Create action-based door</t>
+  </si>
+  <si>
+    <t>Advanced Level</t>
+  </si>
+  <si>
+    <t>Environment setup</t>
+  </si>
+  <si>
+    <t>Scene to Scene transition</t>
+  </si>
+  <si>
+    <t>Write scripts to handle level transition</t>
+  </si>
+  <si>
+    <t>2D Project</t>
+  </si>
+  <si>
+    <t>2D Sprite Animation: Animate by animators</t>
+  </si>
+  <si>
+    <t>2D Sprite Animation: Animate by sprites</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>2D Physics: Colliders</t>
+  </si>
+  <si>
+    <t>2D Physics: Rigidbody</t>
+  </si>
+  <si>
+    <t>2D Physics: Hinge</t>
+  </si>
+  <si>
+    <t>2D Physics: Area effector</t>
+  </si>
+  <si>
+    <t>2D Physics: Distance Joint</t>
+  </si>
+  <si>
+    <t>2D Physics: Point Effector</t>
+  </si>
+  <si>
+    <t>2D Physics: Physics Materials</t>
   </si>
 </sst>
 </file>
@@ -276,7 +318,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,8 +337,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -485,7 +539,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -499,8 +564,62 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -513,7 +632,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -525,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -557,47 +676,98 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -900,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D34"/>
+  <dimension ref="B1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -916,18 +1086,18 @@
   <sheetData>
     <row r="1" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -1084,190 +1254,337 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="23" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
+      <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="10">
+      <c r="B20" s="25">
         <v>10</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="10">
+      <c r="B21" s="25">
         <v>11</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="10">
+      <c r="B22" s="25">
         <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="10">
+      <c r="B23" s="25">
         <v>13</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="C23" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="25" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="25" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="10">
+      <c r="B27" s="25">
         <v>15</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="10">
+      <c r="B28" s="25">
         <v>16</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="10">
+      <c r="B29" s="25">
         <v>17</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="13" t="s">
+      <c r="C29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="25">
+        <v>18</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="10">
-        <v>18</v>
-      </c>
-      <c r="C30" s="13" t="s">
+      <c r="D30" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="13" t="s">
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="25">
+        <v>19</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="30">
+        <v>20</v>
+      </c>
+      <c r="C32" s="31" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="11">
-        <v>19</v>
-      </c>
-      <c r="C31" s="24" t="s">
+      <c r="D32" s="32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="11">
-        <v>20</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="29">
+        <v>21</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="29">
+        <v>22</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="29">
+        <v>23</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="23" t="s">
+      <c r="C38" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="41"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="13"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="13"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="13"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="13"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="13"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="13"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="13"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="13"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="C41:D41"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B33:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Workshop_List.xlsx
+++ b/Workshop_List.xlsx
@@ -688,36 +688,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -745,28 +715,58 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1072,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1086,18 +1086,18 @@
   <sheetData>
     <row r="1" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -1254,25 +1254,25 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="25">
+      <c r="B20" s="15">
         <v>10</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1283,7 +1283,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="25">
+      <c r="B21" s="15">
         <v>11</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1294,7 +1294,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="25">
+      <c r="B22" s="15">
         <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1305,7 +1305,7 @@
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="25">
+      <c r="B23" s="15">
         <v>13</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -1316,7 +1316,7 @@
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1327,7 +1327,7 @@
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1338,7 +1338,7 @@
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="15" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1349,7 +1349,7 @@
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="25">
+      <c r="B27" s="15">
         <v>15</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1360,7 +1360,7 @@
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="25">
+      <c r="B28" s="15">
         <v>16</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1371,69 +1371,69 @@
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="25">
+      <c r="B29" s="15">
         <v>17</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="25">
+      <c r="B30" s="15">
         <v>18</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="25">
+      <c r="B31" s="15">
         <v>19</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="30">
+      <c r="B32" s="20">
         <v>20</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="22" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="23" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="29">
+      <c r="B35" s="19">
         <v>21</v>
       </c>
       <c r="C35" s="14" t="s">
@@ -1444,7 +1444,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="29">
+      <c r="B36" s="19">
         <v>22</v>
       </c>
       <c r="C36" s="14" t="s">
@@ -1455,123 +1455,123 @@
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="29">
+      <c r="B37" s="19">
         <v>23</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="24" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="41"/>
+      <c r="D41" s="30"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="24" t="s">
         <v>73</v>
       </c>
       <c r="D42" s="13"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="24" t="s">
         <v>74</v>
       </c>
       <c r="D43" s="13"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="24" t="s">
         <v>77</v>
       </c>
       <c r="D44" s="13"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="24" t="s">
         <v>76</v>
       </c>
       <c r="D45" s="13"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="24" t="s">
         <v>78</v>
       </c>
       <c r="D46" s="13"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="24" t="s">
         <v>79</v>
       </c>
       <c r="D47" s="13"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="24" t="s">
         <v>80</v>
       </c>
       <c r="D48" s="13"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="24" t="s">
         <v>81</v>
       </c>
       <c r="D49" s="13"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="24" t="s">
         <v>82</v>
       </c>
       <c r="D50" s="13"/>

--- a/Workshop_List.xlsx
+++ b/Workshop_List.xlsx
@@ -1070,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D50"/>
+  <dimension ref="B1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1414,177 +1414,182 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="41" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="23" t="s">
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C53" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D53" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="19">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="19">
         <v>21</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C54" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D54" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="19">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="19">
         <v>22</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C55" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D55" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="19">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="19">
         <v>23</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="26" t="s">
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C57" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D57" s="24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="40" t="s">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="28" t="s">
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="27" t="s">
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C68" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="30"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="25" t="s">
+      <c r="D68" s="30"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C69" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="13"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="25" t="s">
+      <c r="D69" s="13"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C70" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="13"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="25" t="s">
+      <c r="D70" s="13"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C71" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="13"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="25" t="s">
+      <c r="D71" s="13"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C72" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="13"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="25" t="s">
+      <c r="D72" s="13"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C73" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="13"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="D73" s="13"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C74" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="13"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="25" t="s">
+      <c r="D74" s="13"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C75" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="13"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="25" t="s">
+      <c r="D75" s="13"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C76" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="13"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="25" t="s">
+      <c r="D76" s="13"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C77" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="13"/>
+      <c r="D77" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="C68:D68"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B52:D52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Workshop_List.xlsx
+++ b/Workshop_List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
   <si>
     <t>Tentative Workshop Schedule</t>
   </si>
@@ -168,9 +168,6 @@
     <t>Write script for turret to fire a projectile</t>
   </si>
   <si>
-    <t>More To Come!</t>
-  </si>
-  <si>
     <t>14c</t>
   </si>
   <si>
@@ -265,19 +262,31 @@
   </si>
   <si>
     <t>2D Physics: Physics Materials</t>
+  </si>
+  <si>
+    <t>Adding UI</t>
+  </si>
+  <si>
+    <t>Write script to control UI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -350,7 +359,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -632,6 +641,17 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -646,127 +666,127 @@
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1070,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D77"/>
+  <dimension ref="B1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1086,18 +1106,18 @@
   <sheetData>
     <row r="1" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -1254,11 +1274,11 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
@@ -1309,7 +1329,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>43</v>
@@ -1339,13 +1359,13 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
@@ -1353,10 +1373,10 @@
         <v>15</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
@@ -1364,10 +1384,10 @@
         <v>16</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
@@ -1375,10 +1395,10 @@
         <v>17</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
@@ -1386,10 +1406,10 @@
         <v>18</v>
       </c>
       <c r="C30" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>64</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
@@ -1397,10 +1417,10 @@
         <v>19</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
@@ -1408,188 +1428,186 @@
         <v>20</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="10">
         <v>21</v>
       </c>
+      <c r="C33" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="19">
+        <v>21</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="19">
+        <v>22</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="19">
+        <v>23</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="41"/>
+      <c r="D42" s="29"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="29"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="13"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="13"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="13"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="13"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="13"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="13"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="13"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="13"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="19">
-        <v>21</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="19">
-        <v>22</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="19">
-        <v>23</v>
-      </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D68" s="30"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D69" s="13"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D70" s="13"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D71" s="13"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D72" s="13"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D73" s="13"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C74" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D74" s="13"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C75" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D75" s="13"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C76" s="24" t="s">
+      <c r="B52" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D76" s="13"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D77" s="13"/>
+      <c r="D52" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="C68:D68"/>
+  <mergeCells count="6">
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B35:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Workshop_List.xlsx
+++ b/Workshop_List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
   <si>
     <t>Tentative Workshop Schedule</t>
   </si>
@@ -268,19 +268,31 @@
   </si>
   <si>
     <t>Write script to control UI</t>
+  </si>
+  <si>
+    <t>Game Controller</t>
+  </si>
+  <si>
+    <t>Write script to handle game process</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -359,7 +371,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -660,134 +672,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1092,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1106,18 +1143,18 @@
   <sheetData>
     <row r="1" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -1274,11 +1311,11 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
@@ -1435,22 +1472,33 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="10">
+      <c r="B33" s="15">
         <v>21</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="42" t="s">
         <v>83</v>
       </c>
     </row>
+    <row r="34" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="43">
+        <v>22</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="23" t="s">
@@ -1496,28 +1544,28 @@
       <c r="B40" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="29"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="31"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="29"/>
+      <c r="D43" s="31"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="25" t="s">
